--- a/Test Data/TC_169_Verify IS Calculation On Addition Deletion of IS Device.xlsx
+++ b/Test Data/TC_169_Verify IS Calculation On Addition Deletion of IS Device.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9C2CB0-92AD-42F2-A4D2-39CF9D362696}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add EXI Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>Color Codes</t>
   </si>
@@ -116,12 +115,18 @@
   </si>
   <si>
     <t>NGC-237/TC-169</t>
+  </si>
+  <si>
+    <t>ISUnitsLoadingDetail</t>
+  </si>
+  <si>
+    <t>Intrinsically Safe Units</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -228,6 +239,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -509,11 +523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,6 +643,9 @@
       <c r="H7" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="I7" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -655,6 +672,9 @@
       </c>
       <c r="H8" s="5">
         <v>40</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="K8"/>
     </row>
@@ -669,11 +689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +781,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
@@ -791,6 +811,9 @@
       </c>
       <c r="J7" s="11" t="s">
         <v>27</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -824,6 +847,9 @@
       <c r="J8" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="K8" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -855,6 +881,9 @@
       </c>
       <c r="J9" s="10" t="s">
         <v>14</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Test Data/TC_169_Verify IS Calculation On Addition Deletion of IS Device.xlsx
+++ b/Test Data/TC_169_Verify IS Calculation On Addition Deletion of IS Device.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Add EXI Devices Loop A" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>Color Codes</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Intrinsically Safe Units</t>
+  </si>
+  <si>
+    <t>Exi800 - 1</t>
   </si>
 </sst>
 </file>
@@ -235,13 +238,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -526,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -549,12 +552,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -563,10 +566,10 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="6"/>
@@ -673,7 +676,7 @@
       <c r="H8" s="5">
         <v>40</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="14" t="s">
         <v>31</v>
       </c>
       <c r="K8"/>
@@ -692,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,12 +710,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -722,10 +725,10 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="16"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="6"/>
@@ -845,9 +848,9 @@
         <v>25</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -880,9 +883,9 @@
         <v>26</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Test Data/TC_169_Verify IS Calculation On Addition Deletion of IS Device.xlsx
+++ b/Test Data/TC_169_Verify IS Calculation On Addition Deletion of IS Device.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>Color Codes</t>
   </si>
@@ -124,13 +124,85 @@
   </si>
   <si>
     <t>Exi800 - 1</t>
+  </si>
+  <si>
+    <t>//Verify IS Unit after deleting IS device</t>
+  </si>
+  <si>
+    <t>            </t>
+  </si>
+  <si>
+    <r>
+      <t>  line number462 need to change to j,8          sISUnits = ((Range)Excel_Utilities.ExcelRange.Cells[j+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00008B"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00008B"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]).Value.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF191970"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ToString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>();</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +221,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF979B85"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00008B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF191970"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -241,6 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -529,7 +624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -552,12 +647,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -566,10 +661,10 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="6"/>
@@ -695,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,12 +805,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -725,10 +820,10 @@
       <c r="B2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="6"/>
@@ -765,7 +860,9 @@
       <c r="G4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
     </row>
@@ -774,13 +871,22 @@
       <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="H5">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="2">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
     </row>
